--- a/data/Datasets_sources_final.xlsx
+++ b/data/Datasets_sources_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC072804-30D3-EB4E-8046-8FB3C43C680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911384D-7A38-2F44-BA0B-B1923FE87F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="780" windowWidth="34360" windowHeight="19560" xr2:uid="{14579860-7547-C64A-9CCA-6A09215F8905}"/>
+    <workbookView xWindow="3060" yWindow="780" windowWidth="31500" windowHeight="19560" xr2:uid="{14579860-7547-C64A-9CCA-6A09215F8905}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1009,9 +1009,6 @@
     <t>RANA-Magnet</t>
   </si>
   <si>
-    <t>CellCall collects ligand–receptor–transcript factor (L–R–TF) axis datasets based on KEGG pathways. (ii) According to prior knowledge of L–R–TF interactions, CellCall infers intercellular communication by combining the expression of ligands/receptors and downstream TF activities for certain L–R pairs. (iii) CellCall embeds a pathway activity analysis method to identify the crucial pathways involved in communications between certain cell types.  We collected human L–R interactions from the NATMI (14), Cellinker (25), CellTalkDB (26), CellChat (15) and STRING v11 databases (only literature or experimental supported data were collected) (27); ligand/receptor complexes were included among the L–R interactions. (2) We extracted the TFs downstream of the L–R interaction from the KEGG pathway.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> NATMI (14), Cellinker (25), CellTalkDB (26), CellChat (15)</t>
   </si>
   <si>
@@ -1022,6 +1019,30 @@
   </si>
   <si>
     <t>The methods of SoptSC are based on a cell–cell similarity matrix learned from the original gene-cell data matrix using a low-rank representation model</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CellCall collects ligand–receptor–transcript factor (L–R–TF) axis datasets based on KEGG pathways. (ii) According to prior knowledge of L–R–TF interactions, CellCall </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>infers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> intercellular communication by combining the expression of ligands/receptors and downstream TF activities for certain L–R pairs. (iii) CellCall embeds a pathway activity analysis method to identify the crucial pathways involved in communications between certain cell types.  We collected human L–R interactions from the NATMI (14), Cellinker (25), CellTalkDB (26), CellChat (15) and STRING v11 databases (only literature or experimental supported data were collected) (27); ligand/receptor complexes were included among the L–R interactions. (2) We extracted the TFs downstream of the L–R interaction from the KEGG pathway.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1147,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1174,7 +1195,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1187,15 +1208,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1640,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2F1791-A586-4340-A267-345E64ABD12A}">
   <dimension ref="A1:BV30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="64" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="H18" zoomScale="116" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2291,7 +2303,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="3" t="s">
         <v>145</v>
       </c>
       <c r="H8" s="2"/>
@@ -3157,13 +3169,13 @@
       <c r="B17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="3" t="s">
         <v>116</v>
       </c>
       <c r="H17" s="2"/>
@@ -3531,7 +3543,7 @@
       <c r="B21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>119</v>
       </c>
       <c r="D21" s="3"/>
@@ -3617,10 +3629,10 @@
       <c r="BV21" s="2"/>
     </row>
     <row r="22" spans="1:74" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="10" t="s">
         <v>167</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -3710,7 +3722,7 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>158</v>
       </c>
       <c r="C23" s="7"/>
@@ -3718,15 +3730,15 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="2"/>
@@ -3796,7 +3808,7 @@
     </row>
     <row r="24" spans="1:74" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3806,7 +3818,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>

--- a/data/Datasets_sources_final.xlsx
+++ b/data/Datasets_sources_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911384D-7A38-2F44-BA0B-B1923FE87F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF717D8-4F48-0142-BC66-7D499840432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="780" windowWidth="31500" windowHeight="19560" xr2:uid="{14579860-7547-C64A-9CCA-6A09215F8905}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="172">
   <si>
     <t>File v1</t>
   </si>
@@ -388,9 +388,6 @@
 - misclassified genes were moved to the correct list (i.e. receptors found on the ligand list or vice versa)
 After curation, the resulting  sets consisted of: Receptors - 1851 genes; Ligands - 1593 genes; ECM - 433 genes. The set of protein interactions were downloaded from: iRefIndex, Pathway Commons, BioGRID. </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOVED NON LIGAND-RECEPTOR INTERACTIONS, still neuronal </t>
   </si>
   <si>
     <r>
@@ -1018,9 +1015,6 @@
     <t>TOT = 20</t>
   </si>
   <si>
-    <t>The methods of SoptSC are based on a cell–cell similarity matrix learned from the original gene-cell data matrix using a low-rank representation model</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">CellCall collects ligand–receptor–transcript factor (L–R–TF) axis datasets based on KEGG pathways. (ii) According to prior knowledge of L–R–TF interactions, CellCall </t>
     </r>
@@ -1043,6 +1037,9 @@
       </rPr>
       <t xml:space="preserve"> intercellular communication by combining the expression of ligands/receptors and downstream TF activities for certain L–R pairs. (iii) CellCall embeds a pathway activity analysis method to identify the crucial pathways involved in communications between certain cell types.  We collected human L–R interactions from the NATMI (14), Cellinker (25), CellTalkDB (26), CellChat (15) and STRING v11 databases (only literature or experimental supported data were collected) (27); ligand/receptor complexes were included among the L–R interactions. (2) We extracted the TFs downstream of the L–R interaction from the KEGG pathway.</t>
     </r>
+  </si>
+  <si>
+    <t>REMOVED NON LIGAND-RECEPTOR INTERACTIONS, still neuronal: decided to keep them</t>
   </si>
 </sst>
 </file>
@@ -1207,13 +1204,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1244,8 +1241,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3354114</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6622984</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>11826</xdr:rowOff>
     </xdr:to>
@@ -1282,14 +1279,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482601</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>180440</xdr:rowOff>
     </xdr:to>
@@ -1650,77 +1647,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2F1791-A586-4340-A267-345E64ABD12A}">
-  <dimension ref="A1:BV30"/>
+  <dimension ref="A1:BW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H18" zoomScale="116" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="N16" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" customWidth="1"/>
-    <col min="8" max="8" width="108.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="129.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="103.6640625" customWidth="1"/>
-    <col min="11" max="11" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="115" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="92" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="79.5" customWidth="1"/>
+    <col min="4" max="4" width="129.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" customWidth="1"/>
+    <col min="9" max="9" width="108.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="129.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="115" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="92" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="79.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1728,30 +1729,32 @@
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -1811,8 +1814,9 @@
       <c r="BT2" s="2"/>
       <c r="BU2" s="2"/>
       <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
     </row>
-    <row r="3" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:75" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1820,30 +1824,32 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1903,8 +1909,9 @@
       <c r="BT3" s="2"/>
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
     </row>
-    <row r="4" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:75" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1912,30 +1919,32 @@
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1995,43 +2004,46 @@
       <c r="BT4" s="2"/>
       <c r="BU4" s="2"/>
       <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
     </row>
-    <row r="5" spans="1:74" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:75" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="J5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -2091,8 +2103,9 @@
       <c r="BT5" s="2"/>
       <c r="BU5" s="2"/>
       <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
     </row>
-    <row r="6" spans="1:74" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:75" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2100,28 +2113,30 @@
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -2181,8 +2196,9 @@
       <c r="BT6" s="2"/>
       <c r="BU6" s="2"/>
       <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
     </row>
-    <row r="7" spans="1:74" ht="136" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:75" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2193,42 +2209,44 @@
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -2287,41 +2305,44 @@
       <c r="BT7" s="2"/>
       <c r="BU7" s="2"/>
       <c r="BV7" s="2"/>
+      <c r="BW7" s="2"/>
     </row>
-    <row r="8" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -2381,39 +2402,42 @@
       <c r="BT8" s="2"/>
       <c r="BU8" s="2"/>
       <c r="BV8" s="2"/>
+      <c r="BW8" s="2"/>
     </row>
-    <row r="9" spans="1:74" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="5"/>
+      <c r="O9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -2473,8 +2497,9 @@
       <c r="BT9" s="2"/>
       <c r="BU9" s="2"/>
       <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
     </row>
-    <row r="10" spans="1:74" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2485,33 +2510,35 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -2571,8 +2598,9 @@
       <c r="BT10" s="2"/>
       <c r="BU10" s="2"/>
       <c r="BV10" s="2"/>
+      <c r="BW10" s="2"/>
     </row>
-    <row r="11" spans="1:74" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:75" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2582,34 +2610,36 @@
       <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -2669,39 +2699,42 @@
       <c r="BT11" s="2"/>
       <c r="BU11" s="2"/>
       <c r="BV11" s="2"/>
+      <c r="BW11" s="2"/>
     </row>
-    <row r="12" spans="1:74" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:75" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3"/>
+      <c r="O12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -2761,8 +2794,9 @@
       <c r="BT12" s="2"/>
       <c r="BU12" s="2"/>
       <c r="BV12" s="2"/>
+      <c r="BW12" s="2"/>
     </row>
-    <row r="13" spans="1:74" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:75" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2772,41 +2806,43 @@
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2865,8 +2901,9 @@
       <c r="BT13" s="2"/>
       <c r="BU13" s="2"/>
       <c r="BV13" s="2"/>
+      <c r="BW13" s="2"/>
     </row>
-    <row r="14" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:75" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2876,43 +2913,45 @@
       <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="L14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -2971,8 +3010,9 @@
       <c r="BT14" s="2"/>
       <c r="BU14" s="2"/>
       <c r="BV14" s="2"/>
+      <c r="BW14" s="2"/>
     </row>
-    <row r="15" spans="1:74" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:75" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2982,30 +3022,32 @@
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -3065,43 +3107,46 @@
       <c r="BT15" s="2"/>
       <c r="BU15" s="2"/>
       <c r="BV15" s="2"/>
+      <c r="BW15" s="2"/>
     </row>
-    <row r="16" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:75" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="3"/>
+      <c r="O16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -3161,39 +3206,42 @@
       <c r="BT16" s="2"/>
       <c r="BU16" s="2"/>
       <c r="BV16" s="2"/>
+      <c r="BW16" s="2"/>
     </row>
-    <row r="17" spans="1:74" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="3"/>
+      <c r="O17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -3253,8 +3301,9 @@
       <c r="BT17" s="2"/>
       <c r="BU17" s="2"/>
       <c r="BV17" s="2"/>
+      <c r="BW17" s="2"/>
     </row>
-    <row r="18" spans="1:74" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -3264,30 +3313,32 @@
       <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="N18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -3347,39 +3398,42 @@
       <c r="BT18" s="2"/>
       <c r="BU18" s="2"/>
       <c r="BV18" s="2"/>
+      <c r="BW18" s="2"/>
     </row>
-    <row r="19" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -3439,8 +3493,9 @@
       <c r="BT19" s="2"/>
       <c r="BU19" s="2"/>
       <c r="BV19" s="2"/>
+      <c r="BW19" s="2"/>
     </row>
-    <row r="20" spans="1:74" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3451,31 +3506,33 @@
         <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3" t="s">
+      <c r="J20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -3535,39 +3592,42 @@
       <c r="BT20" s="2"/>
       <c r="BU20" s="2"/>
       <c r="BV20" s="2"/>
+      <c r="BW20" s="2"/>
     </row>
-    <row r="21" spans="1:74" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
+      <c r="K21" s="2"/>
+      <c r="L21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="1" t="s">
+      <c r="M21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -3627,37 +3687,40 @@
       <c r="BT21" s="2"/>
       <c r="BU21" s="2"/>
       <c r="BV21" s="2"/>
+      <c r="BW21" s="2"/>
     </row>
-    <row r="22" spans="1:74" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -3717,35 +3780,38 @@
       <c r="BT22" s="2"/>
       <c r="BU22" s="2"/>
       <c r="BV22" s="2"/>
+      <c r="BW22" s="2"/>
     </row>
-    <row r="23" spans="1:74" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>158</v>
+      <c r="B23" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -3805,22 +3871,21 @@
       <c r="BT23" s="2"/>
       <c r="BU23" s="2"/>
       <c r="BV23" s="2"/>
+      <c r="BW23" s="2"/>
     </row>
-    <row r="24" spans="1:74" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3885,17 +3950,17 @@
       <c r="BT24" s="2"/>
       <c r="BU24" s="2"/>
       <c r="BV24" s="2"/>
+      <c r="BW24" s="2"/>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3960,17 +4025,17 @@
       <c r="BT25" s="2"/>
       <c r="BU25" s="2"/>
       <c r="BV25" s="2"/>
+      <c r="BW25" s="2"/>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -4035,17 +4100,17 @@
       <c r="BT26" s="2"/>
       <c r="BU26" s="2"/>
       <c r="BV26" s="2"/>
+      <c r="BW26" s="2"/>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -4110,17 +4175,17 @@
       <c r="BT27" s="2"/>
       <c r="BU27" s="2"/>
       <c r="BV27" s="2"/>
+      <c r="BW27" s="2"/>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="I28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -4185,17 +4250,17 @@
       <c r="BT28" s="2"/>
       <c r="BU28" s="2"/>
       <c r="BV28" s="2"/>
+      <c r="BW28" s="2"/>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="I29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -4260,17 +4325,17 @@
       <c r="BT29" s="2"/>
       <c r="BU29" s="2"/>
       <c r="BV29" s="2"/>
+      <c r="BW29" s="2"/>
     </row>
-    <row r="30" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="I30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -4335,38 +4400,39 @@
       <c r="BT30" s="2"/>
       <c r="BU30" s="2"/>
       <c r="BV30" s="2"/>
+      <c r="BW30" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{9A33ADFD-31BA-D049-A475-4787239E3FF6}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{CB57BF11-0AA7-5043-822D-76EBBA3C45DE}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{6481503D-72E5-4B4A-A893-AACAED8F8EEB}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{8261AA01-2D56-0C47-B7D9-68CB61A6AFF4}"/>
-    <hyperlink ref="L6" r:id="rId5" xr:uid="{F605300B-17A8-C746-B647-EF363E692DCD}"/>
-    <hyperlink ref="L7" r:id="rId6" xr:uid="{7DB5808B-CB1A-2F4C-835B-91A8BF23DB55}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{A517FBBF-AEEF-7943-BF90-1FBFD728EBBF}"/>
-    <hyperlink ref="L9" r:id="rId8" xr:uid="{84F63593-FBCA-124C-A4E6-92E5666DFF1F}"/>
-    <hyperlink ref="L10" r:id="rId9" xr:uid="{D37F46A4-2A67-B644-80E8-A722FD41CD30}"/>
-    <hyperlink ref="L11" r:id="rId10" xr:uid="{D8115A19-30C6-F84F-988C-D757486F430E}"/>
-    <hyperlink ref="L12" r:id="rId11" xr:uid="{7D8616F6-3C12-5B4E-96A0-ACD3151A2A82}"/>
-    <hyperlink ref="L13" r:id="rId12" xr:uid="{EF77EEA9-4944-C846-8C2C-6F7E8502BFA9}"/>
-    <hyperlink ref="L14" r:id="rId13" xr:uid="{6C13F5D5-5437-294C-BB7B-495C7E057099}"/>
-    <hyperlink ref="L15" r:id="rId14" xr:uid="{6B792E74-5ADA-BE48-8B2B-16CB4F9E021F}"/>
-    <hyperlink ref="L16" r:id="rId15" xr:uid="{53A0DA63-4C57-F949-A592-4635F1AFBDF4}"/>
-    <hyperlink ref="L18" r:id="rId16" xr:uid="{32AD0701-6101-BD49-8DA8-C3977E19568B}"/>
-    <hyperlink ref="L19" r:id="rId17" xr:uid="{D3B5716F-B5C0-AB47-854A-4243E3F0905E}"/>
-    <hyperlink ref="L20" r:id="rId18" xr:uid="{34FBC3DA-58B9-CD42-AF5D-2E596C077A96}"/>
-    <hyperlink ref="M7" r:id="rId19" xr:uid="{3CD4BD20-E5BA-BE4F-A9C7-7F4697A874D2}"/>
-    <hyperlink ref="M10" r:id="rId20" display="https://baderlab.org/CellCellInteractions?action=AttachFile&amp;do=view&amp;target=receptor_ligand_interactions_mitab_v1.0_April2017.txt.zip" xr:uid="{A60A76A2-C0EE-BE47-B23C-59B56D355D65}"/>
-    <hyperlink ref="M11" r:id="rId21" xr:uid="{F53E2C1C-C5B7-7D40-9CA5-3BECCA50104F}"/>
-    <hyperlink ref="M13" r:id="rId22" xr:uid="{D45B9965-8CE9-CE40-9048-B37EB4D2EDCC}"/>
-    <hyperlink ref="M14" r:id="rId23" xr:uid="{0FF807DB-0EC2-4B4E-B2DD-2F0D7AF22140}"/>
-    <hyperlink ref="M15" r:id="rId24" xr:uid="{37A6F32E-95D2-BF40-91C2-253B6D5ED308}"/>
-    <hyperlink ref="M18" r:id="rId25" xr:uid="{7BEB2331-5134-9E41-804E-D29A35A34859}"/>
-    <hyperlink ref="L17" r:id="rId26" xr:uid="{4DDDF133-2CD6-BD48-AC32-3F3B91D248A9}"/>
-    <hyperlink ref="N21" r:id="rId27" display="https://doi.org/10.1093/bioinformatics/btab036" xr:uid="{01264FCC-104C-7D43-9314-339AB30EDA6E}"/>
-    <hyperlink ref="L21" r:id="rId28" xr:uid="{28930AE6-82CA-C245-9EE9-8086F43A56AF}"/>
-    <hyperlink ref="N23" r:id="rId29" display="https://doi.org/10.1093/nar/gkab638" xr:uid="{4919D315-F7FC-6A40-B33F-C97AB12B7BD7}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{9A33ADFD-31BA-D049-A475-4787239E3FF6}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{CB57BF11-0AA7-5043-822D-76EBBA3C45DE}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{6481503D-72E5-4B4A-A893-AACAED8F8EEB}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{8261AA01-2D56-0C47-B7D9-68CB61A6AFF4}"/>
+    <hyperlink ref="M6" r:id="rId5" xr:uid="{F605300B-17A8-C746-B647-EF363E692DCD}"/>
+    <hyperlink ref="M7" r:id="rId6" xr:uid="{7DB5808B-CB1A-2F4C-835B-91A8BF23DB55}"/>
+    <hyperlink ref="M8" r:id="rId7" xr:uid="{A517FBBF-AEEF-7943-BF90-1FBFD728EBBF}"/>
+    <hyperlink ref="M9" r:id="rId8" xr:uid="{84F63593-FBCA-124C-A4E6-92E5666DFF1F}"/>
+    <hyperlink ref="M10" r:id="rId9" xr:uid="{D37F46A4-2A67-B644-80E8-A722FD41CD30}"/>
+    <hyperlink ref="M11" r:id="rId10" xr:uid="{D8115A19-30C6-F84F-988C-D757486F430E}"/>
+    <hyperlink ref="M12" r:id="rId11" xr:uid="{7D8616F6-3C12-5B4E-96A0-ACD3151A2A82}"/>
+    <hyperlink ref="M13" r:id="rId12" xr:uid="{EF77EEA9-4944-C846-8C2C-6F7E8502BFA9}"/>
+    <hyperlink ref="M14" r:id="rId13" xr:uid="{6C13F5D5-5437-294C-BB7B-495C7E057099}"/>
+    <hyperlink ref="M15" r:id="rId14" xr:uid="{6B792E74-5ADA-BE48-8B2B-16CB4F9E021F}"/>
+    <hyperlink ref="M16" r:id="rId15" xr:uid="{53A0DA63-4C57-F949-A592-4635F1AFBDF4}"/>
+    <hyperlink ref="M18" r:id="rId16" xr:uid="{32AD0701-6101-BD49-8DA8-C3977E19568B}"/>
+    <hyperlink ref="M19" r:id="rId17" xr:uid="{D3B5716F-B5C0-AB47-854A-4243E3F0905E}"/>
+    <hyperlink ref="M20" r:id="rId18" xr:uid="{34FBC3DA-58B9-CD42-AF5D-2E596C077A96}"/>
+    <hyperlink ref="N7" r:id="rId19" xr:uid="{3CD4BD20-E5BA-BE4F-A9C7-7F4697A874D2}"/>
+    <hyperlink ref="N10" r:id="rId20" display="https://baderlab.org/CellCellInteractions?action=AttachFile&amp;do=view&amp;target=receptor_ligand_interactions_mitab_v1.0_April2017.txt.zip" xr:uid="{A60A76A2-C0EE-BE47-B23C-59B56D355D65}"/>
+    <hyperlink ref="N11" r:id="rId21" xr:uid="{F53E2C1C-C5B7-7D40-9CA5-3BECCA50104F}"/>
+    <hyperlink ref="N13" r:id="rId22" xr:uid="{D45B9965-8CE9-CE40-9048-B37EB4D2EDCC}"/>
+    <hyperlink ref="N14" r:id="rId23" xr:uid="{0FF807DB-0EC2-4B4E-B2DD-2F0D7AF22140}"/>
+    <hyperlink ref="N15" r:id="rId24" xr:uid="{37A6F32E-95D2-BF40-91C2-253B6D5ED308}"/>
+    <hyperlink ref="N18" r:id="rId25" xr:uid="{7BEB2331-5134-9E41-804E-D29A35A34859}"/>
+    <hyperlink ref="M17" r:id="rId26" xr:uid="{4DDDF133-2CD6-BD48-AC32-3F3B91D248A9}"/>
+    <hyperlink ref="O21" r:id="rId27" display="https://doi.org/10.1093/bioinformatics/btab036" xr:uid="{01264FCC-104C-7D43-9314-339AB30EDA6E}"/>
+    <hyperlink ref="M21" r:id="rId28" xr:uid="{28930AE6-82CA-C245-9EE9-8086F43A56AF}"/>
+    <hyperlink ref="O23" r:id="rId29" display="https://doi.org/10.1093/nar/gkab638" xr:uid="{4919D315-F7FC-6A40-B33F-C97AB12B7BD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId30"/>

--- a/data/Datasets_sources_final.xlsx
+++ b/data/Datasets_sources_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF717D8-4F48-0142-BC66-7D499840432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80B90C-E423-A347-852E-2D16846FB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="780" windowWidth="31500" windowHeight="19560" xr2:uid="{14579860-7547-C64A-9CCA-6A09215F8905}"/>
+    <workbookView xWindow="3060" yWindow="780" windowWidth="21880" windowHeight="19560" xr2:uid="{14579860-7547-C64A-9CCA-6A09215F8905}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
 multicellular tumor ecosystem</t>
   </si>
   <si>
-    <t>consider ECM? NO ECM-ECM</t>
-  </si>
-  <si>
     <t>ligand-receptor INTERACTIONS</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
       </rPr>
       <t>, LRdb</t>
     </r>
-  </si>
-  <si>
-    <t>Cell cell comunication CCC Comparison</t>
   </si>
   <si>
     <t>Bioinformatics, Volume 37, Issue 14, July 2021, Pages 2025–2032, https://doi.org/10.1093/bioinformatics/btab036</t>
@@ -1009,9 +1003,6 @@
     <t xml:space="preserve"> NATMI (14), Cellinker (25), CellTalkDB (26), CellChat (15)</t>
   </si>
   <si>
-    <t>core and extended data: L-R-TF triplets</t>
-  </si>
-  <si>
     <t>TOT = 20</t>
   </si>
   <si>
@@ -1040,6 +1031,15 @@
   </si>
   <si>
     <t>REMOVED NON LIGAND-RECEPTOR INTERACTIONS, still neuronal: decided to keep them</t>
+  </si>
+  <si>
+    <t>only ligand-receptor kept</t>
+  </si>
+  <si>
+    <t>only LR pairs from L-R-TF triplets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell cell comunication CCC Comparison, in create_db.R removed all unique "A_B" </t>
   </si>
 </sst>
 </file>
@@ -1204,13 +1204,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1649,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2F1791-A586-4340-A267-345E64ABD12A}">
   <dimension ref="A1:BW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N16" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1673,10 +1673,10 @@
   <sheetData>
     <row r="1" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1697,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
@@ -1730,10 +1730,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="3"/>
@@ -1741,10 +1741,10 @@
         <v>38</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1825,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1834,21 +1834,21 @@
         <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1920,7 +1920,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1929,21 +1929,21 @@
         <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -2011,16 +2011,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2028,21 +2028,21 @@
         <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -2114,7 +2114,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2124,18 +2124,18 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -2203,37 +2203,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>30</v>
@@ -2242,10 +2242,10 @@
         <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -2312,36 +2312,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -2409,13 +2409,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2425,18 +2425,18 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2504,40 +2504,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -2605,31 +2605,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>30</v>
@@ -2638,7 +2638,7 @@
         <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2706,34 +2706,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2801,35 +2801,35 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>30</v>
@@ -2838,10 +2838,10 @@
         <v>34</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -2908,37 +2908,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>30</v>
@@ -2947,10 +2947,10 @@
         <v>35</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -3017,27 +3017,27 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>30</v>
@@ -3046,7 +3046,7 @@
         <v>36</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -3114,38 +3114,38 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -3213,34 +3213,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -3308,27 +3308,27 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>30</v>
@@ -3337,7 +3337,7 @@
         <v>37</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -3405,25 +3405,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="13" t="s">
-        <v>171</v>
+      <c r="H19" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -3500,38 +3500,38 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -3599,34 +3599,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -3694,32 +3694,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="2"/>
       <c r="O22" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -3786,31 +3786,31 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>157</v>
+      <c r="B23" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="2"/>
       <c r="O23" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="24" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>

--- a/data/Datasets_sources_final.xlsx
+++ b/data/Datasets_sources_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80B90C-E423-A347-852E-2D16846FB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BDF10C-F43B-0E4A-8F48-57C89B58E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="780" windowWidth="21880" windowHeight="19560" xr2:uid="{14579860-7547-C64A-9CCA-6A09215F8905}"/>
+    <workbookView xWindow="740" yWindow="760" windowWidth="21880" windowHeight="19560" xr2:uid="{14579860-7547-C64A-9CCA-6A09215F8905}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="173">
   <si>
     <t>File v1</t>
   </si>
@@ -1040,6 +1040,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cell cell comunication CCC Comparison, in create_db.R removed all unique "A_B" </t>
+  </si>
+  <si>
+    <t>Cellcall21_new.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1205,12 +1208,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1649,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2F1791-A586-4340-A267-345E64ABD12A}">
   <dimension ref="A1:BW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3416,7 +3413,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="3" t="s">
         <v>168</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -3786,10 +3783,12 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>167</v>
       </c>

--- a/data/Datasets_sources_final.xlsx
+++ b/data/Datasets_sources_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BDF10C-F43B-0E4A-8F48-57C89B58E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B8EF2-EA66-9A4B-9B5F-529CA2533BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="21880" windowHeight="19560" xr2:uid="{14579860-7547-C64A-9CCA-6A09215F8905}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="172">
   <si>
     <t>File v1</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>Converted to .xlsx</t>
-  </si>
-  <si>
-    <t>Converted Uniprot IDs to gene symbols; kept only ligand-receptor interactions</t>
   </si>
   <si>
     <t>Added protein_type, selected (ECM)ligand-(ECM)receptor only, removed duplicates</t>
@@ -1646,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2F1791-A586-4340-A267-345E64ABD12A}">
   <dimension ref="A1:BW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1673,7 +1670,7 @@
         <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1727,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>49</v>
@@ -1741,7 +1738,7 @@
         <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1822,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1834,11 +1831,11 @@
         <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>30</v>
@@ -1917,7 +1914,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1925,15 +1922,13 @@
       <c r="H4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>30</v>
@@ -2008,13 +2003,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>50</v>
@@ -2028,11 +2023,11 @@
         <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>30</v>
@@ -2111,7 +2106,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2121,11 +2116,11 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>30</v>
@@ -2200,13 +2195,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>51</v>
@@ -2218,19 +2213,19 @@
         <v>58</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>30</v>
@@ -2309,13 +2304,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>52</v>
@@ -2323,15 +2318,15 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>30</v>
@@ -2406,13 +2401,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2422,11 +2417,11 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>30</v>
@@ -2501,13 +2496,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>62</v>
@@ -2515,23 +2510,23 @@
       <c r="F10" s="7"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>78</v>
@@ -2602,13 +2597,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="9" t="s">
@@ -2619,14 +2614,14 @@
         <v>41</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>30</v>
@@ -2703,13 +2698,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2719,11 +2714,11 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>30</v>
@@ -2798,13 +2793,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="9" t="s">
@@ -2817,16 +2812,16 @@
         <v>42</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>30</v>
@@ -2905,13 +2900,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>53</v>
@@ -2926,16 +2921,16 @@
         <v>43</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>30</v>
@@ -3014,13 +3009,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3030,11 +3025,11 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>30</v>
@@ -3111,13 +3106,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>54</v>
@@ -3128,14 +3123,14 @@
         <v>44</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>30</v>
@@ -3210,27 +3205,27 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>30</v>
@@ -3305,27 +3300,27 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>30</v>
@@ -3406,7 +3401,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>55</v>
@@ -3414,13 +3409,13 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -3497,13 +3492,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>56</v>
@@ -3514,14 +3509,14 @@
         <v>45</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>31</v>
@@ -3596,34 +3591,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -3691,32 +3686,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="2"/>
       <c r="O22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -3784,32 +3779,32 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="2"/>
       <c r="O23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -3874,7 +3869,7 @@
     </row>
     <row r="24" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
